--- a/bakjesExtrapoleren.xlsx
+++ b/bakjesExtrapoleren.xlsx
@@ -15744,8 +15744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bakjesExtrapoleren.xlsx
+++ b/bakjesExtrapoleren.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
   <si>
     <t>deltaCO2</t>
   </si>
@@ -56,11 +56,18 @@
   <si>
     <t>y = 36.598*exp(-1.054*x)</t>
   </si>
+  <si>
+    <t>Nieuwe index voor SSP:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,8 +97,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3117,6 +3129,1054 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AR5'!$B$126</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mediaan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4554024496937884E-2"/>
+                  <c:y val="-0.24915135608048994"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AR5'!$A$127:$A$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.69289999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3496999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9323999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2383000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9205000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AR5'!$B$127:$B$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.7387779999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1164050000000001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0000000">
+                  <c:v>0.2418014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1883726</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0477849999999995E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-058C-41F3-B962-A2FAB8A8062F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="767487232"/>
+        <c:axId val="767488216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="767487232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767488216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="767488216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767487232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AR5'!$C$126</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AR5'!$A$127:$A$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.69289999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3496999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9323999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2383000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9205000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AR5'!$C$127:$C$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.53590020000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25178410000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3575238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9455960000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.2166339999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5210259999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E9B4-4EBD-80ED-B5838724301C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="764493024"/>
+        <c:axId val="836105752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="764493024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="836105752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="836105752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="764493024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AR5'!$D$126</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AR5'!$A$127:$A$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.69289999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3496999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9323999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2383000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9205000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AR5'!$D$127:$D$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.8924479999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3461730000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.34642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.591512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.820619</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50863190000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18F2-4F88-9CDA-41D463208B32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="765393296"/>
+        <c:axId val="765392968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="765393296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765392968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="765392968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765393296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -3436,6 +4496,1436 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="627609576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AR5'!$B$126</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mediaan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('AR5'!$A$127:$A$128,'AR5'!$A$130:$A$132)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.69289999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3496999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2383000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9205000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('AR5'!$B$127:$B$128,'AR5'!$B$130:$B$132)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.7387779999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000000">
+                  <c:v>0.2418014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1883726</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0477849999999995E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22E6-43CF-96C8-912A13AC7496}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="836100504"/>
+        <c:axId val="836100176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="836100504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="836100176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="836100176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="836100504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AR5'!$C$126</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.1220691163604553E-2"/>
+                  <c:y val="-0.19822543015456401"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('AR5'!$A$127:$A$128,'AR5'!$A$130,'AR5'!$A$132)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.69289999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3496999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2383000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('AR5'!$C$127:$C$128,'AR5'!$C$130,'AR5'!$C$132)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.53590020000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25178410000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9455960000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5210259999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B2E-4AF0-BD4B-AD04A12C9337}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="764032248"/>
+        <c:axId val="764043072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="764032248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="764043072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="764043072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="764032248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AR5'!$D$126</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:forward val="1"/>
+            <c:backward val="1"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.3439632545931757E-2"/>
+                  <c:y val="-0.298947579469233"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('AR5'!$A$128,'AR5'!$A$130:$A$132)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.3496999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2383000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9205000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('AR5'!$D$128,'AR5'!$D$130:$D$132)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.3461730000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.591512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.820619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50863190000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4602-475D-BBCE-F52D7524B399}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="860545016"/>
+        <c:axId val="860548952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="860545016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="860548952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="860548952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="860545016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AR5'!$D$126</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0893700787401576E-2"/>
+                  <c:y val="-0.34685367454068239"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('AR5'!$A$128,'AR5'!$A$131,'AR5'!$A$132)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.3496999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9205000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('AR5'!$D$128,'AR5'!$D$131,'AR5'!$D$132)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.3461730000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.820619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50863190000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1995-4BD9-963B-4B9E0AC72891}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="765398872"/>
+        <c:axId val="765391984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="765398872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765391984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="765391984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765398872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6418,7 +8908,287 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10866,7 +13636,3619 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15476,6 +21858,216 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Chart 21"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Chart 22"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Chart 23"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15742,13 +22334,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC80"/>
+  <dimension ref="A1:AC144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -16052,7 +22648,7 @@
       <c r="A43">
         <v>2.2383000000000002</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <f>2.3819*EXP(-0.895*A43)</f>
         <v>0.32130000044469703</v>
       </c>
@@ -16111,6 +22707,226 @@
     <row r="80" spans="29:29" x14ac:dyDescent="0.25">
       <c r="AC80" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>0.69289999999999996</v>
+      </c>
+      <c r="B127">
+        <v>1.7387779999999999</v>
+      </c>
+      <c r="C127">
+        <v>0.53590020000000005</v>
+      </c>
+      <c r="D127">
+        <v>7.8924479999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1.3496999999999999</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>0.25178410000000001</v>
+      </c>
+      <c r="D128">
+        <v>8.3461730000000003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1.9323999999999999</v>
+      </c>
+      <c r="B129">
+        <v>1.1164050000000001</v>
+      </c>
+      <c r="C129">
+        <v>0.3575238</v>
+      </c>
+      <c r="D129">
+        <v>10.34642</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2.2383000000000002</v>
+      </c>
+      <c r="B130" s="1">
+        <v>0.2418014</v>
+      </c>
+      <c r="C130">
+        <v>5.9455960000000002E-2</v>
+      </c>
+      <c r="D130">
+        <v>1.591512</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2.9205000000000001</v>
+      </c>
+      <c r="B131">
+        <v>0.1883726</v>
+      </c>
+      <c r="C131">
+        <v>-4.2166339999999997E-2</v>
+      </c>
+      <c r="D131">
+        <v>1.820619</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>4.1852</v>
+      </c>
+      <c r="B132">
+        <v>7.0477849999999995E-2</v>
+      </c>
+      <c r="C132">
+        <v>8.5210259999999997E-4</v>
+      </c>
+      <c r="D132">
+        <v>0.50863190000000003</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1.9323999999999999</v>
+      </c>
+      <c r="B135">
+        <f>3.6792*EXP(-0.968*A129)</f>
+        <v>0.5667325029055762</v>
+      </c>
+      <c r="D135" s="3">
+        <f>31.84*EXP(-0.986*A127)</f>
+        <v>16.079158993377504</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>0.69289999999999996</v>
+      </c>
+      <c r="B139">
+        <v>1.7387779999999999</v>
+      </c>
+      <c r="C139">
+        <v>0.53590020000000005</v>
+      </c>
+      <c r="D139" s="3">
+        <f>28.84*EXP(-0.986*A127)</f>
+        <v>14.56416285706681</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1.3496999999999999</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>0.25178410000000001</v>
+      </c>
+      <c r="D140">
+        <v>8.3461730000000003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1.9323999999999999</v>
+      </c>
+      <c r="B141">
+        <f>3.6792*EXP(-0.968*A135)</f>
+        <v>0.5667325029055762</v>
+      </c>
+      <c r="C141">
+        <f>2.7593*EXP(-1.884*A141)</f>
+        <v>7.2391631330646175E-2</v>
+      </c>
+      <c r="D141" s="3">
+        <f>28.84*EXP(-0.986*A129)</f>
+        <v>4.2905585063078115</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2.2383000000000002</v>
+      </c>
+      <c r="B142" s="1">
+        <v>0.2418014</v>
+      </c>
+      <c r="C142">
+        <v>5.9455960000000002E-2</v>
+      </c>
+      <c r="D142">
+        <f>28.84*EXP(-0.986*A130)</f>
+        <v>3.1733871290295386</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2.9205000000000001</v>
+      </c>
+      <c r="B143">
+        <v>0.1883726</v>
+      </c>
+      <c r="C143">
+        <f>2.7593*EXP(-1.884*A143)</f>
+        <v>1.1251599579133463E-2</v>
+      </c>
+      <c r="D143">
+        <v>1.820619</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>4.1852</v>
+      </c>
+      <c r="B144">
+        <v>7.0477849999999995E-2</v>
+      </c>
+      <c r="C144">
+        <v>8.5210259999999997E-4</v>
+      </c>
+      <c r="D144">
+        <v>0.50863190000000003</v>
       </c>
     </row>
   </sheetData>

--- a/bakjesExtrapoleren.xlsx
+++ b/bakjesExtrapoleren.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
   <si>
     <t>deltaCO2</t>
   </si>
@@ -59,17 +59,28 @@
   <si>
     <t>Nieuwe index voor SSP:</t>
   </si>
+  <si>
+    <t>ratio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.0000000"/>
-    <numFmt numFmtId="168" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -97,13 +108,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,7 +174,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -254,7 +266,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="nl-NL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -374,7 +386,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="629584224"/>
@@ -436,7 +448,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="629583896"/>
@@ -477,7 +489,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -529,7 +541,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -650,7 +662,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="nl-NL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -770,7 +782,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="760753568"/>
@@ -832,7 +844,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="760758816"/>
@@ -873,7 +885,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -925,7 +937,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1016,7 +1028,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="nl-NL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1136,7 +1148,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="875514112"/>
@@ -1198,7 +1210,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="875523296"/>
@@ -1239,7 +1251,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1291,7 +1303,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1382,7 +1394,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="nl-NL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1502,7 +1514,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="875517064"/>
@@ -1564,7 +1576,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="875519360"/>
@@ -1605,7 +1617,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1657,7 +1669,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1779,7 +1791,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="nl-NL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1893,7 +1905,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="878521400"/>
@@ -1955,7 +1967,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="878522384"/>
@@ -1996,7 +2008,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2048,7 +2060,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2169,7 +2181,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="nl-NL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2289,7 +2301,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="823179216"/>
@@ -2351,7 +2363,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="823178888"/>
@@ -2392,7 +2404,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2444,7 +2456,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2535,7 +2547,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="nl-NL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2655,7 +2667,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="875518376"/>
@@ -2717,7 +2729,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="875521000"/>
@@ -2758,7 +2770,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2810,7 +2822,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2901,7 +2913,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="nl-NL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3015,7 +3027,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="913419888"/>
@@ -3077,7 +3089,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="913406440"/>
@@ -3118,7 +3130,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3170,7 +3182,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3261,7 +3273,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="nl-NL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3393,7 +3405,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="767488216"/>
@@ -3455,7 +3467,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="767487232"/>
@@ -3496,7 +3508,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3548,7 +3560,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3735,7 +3747,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="836105752"/>
@@ -3797,7 +3809,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="764493024"/>
@@ -3838,7 +3850,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3890,7 +3902,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4063,7 +4075,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="765392968"/>
@@ -4125,7 +4137,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="765393296"/>
@@ -4166,7 +4178,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4218,7 +4230,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4310,7 +4322,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="nl-NL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4430,7 +4442,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="627607280"/>
@@ -4492,7 +4504,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="627609576"/>
@@ -4533,7 +4545,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4585,7 +4597,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4766,7 +4778,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="836100176"/>
@@ -4828,7 +4840,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="836100504"/>
@@ -4869,7 +4881,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4921,7 +4933,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5012,7 +5024,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="nl-NL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5132,7 +5144,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="764043072"/>
@@ -5194,7 +5206,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="764032248"/>
@@ -5235,7 +5247,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5287,7 +5299,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5380,7 +5392,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="nl-NL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5500,7 +5512,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="860548952"/>
@@ -5562,7 +5574,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="860545016"/>
@@ -5603,7 +5615,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5655,7 +5667,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5746,7 +5758,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="nl-NL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5860,7 +5872,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="765391984"/>
@@ -5922,7 +5934,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="765398872"/>
@@ -5963,7 +5975,1605 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AR5'!$C$174</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10788735783027122"/>
+                  <c:y val="-0.3510032079323418"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                      <a:t>y = 2.1434e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" baseline="30000"/>
+                      <a:t>-1.378x</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="nl-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AR5'!$A$175:$A$180</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.69289999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3496999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9323999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2383000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9205000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AR5'!$C$175:$C$180</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.69276470000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30195050000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52324910000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4589890000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2652679999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7098-4650-97B6-0656E7961552}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="837923744"/>
+        <c:axId val="837923088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="837923744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="837923088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="837923088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="837923744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AR5'!$D$174</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10933814523184603"/>
+                  <c:y val="-0.32507035578885973"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>y = 9.1525e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="30000"/>
+                      <a:t>-0.823x</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1200"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="nl-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AR5'!$A$175:$A$180</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.69289999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3496999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9323999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2383000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9205000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AR5'!$D$175:$D$180</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2740799999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5077959999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9232469999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.116473</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67469699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31051279999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1929-45C1-9EB3-2B94B8C93499}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="843085296"/>
+        <c:axId val="843099072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="843085296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="843099072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="843099072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="843085296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('AR5'!$A$175:$A$176,'AR5'!$A$178:$A$180)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.69289999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3496999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2383000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9205000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('AR5'!$C$175:$C$176,'AR5'!$C$178:$C$180)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.69276470000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30195050000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4589890000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2652679999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96BB-4BD2-B077-ECBE2310DF62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="839922064"/>
+        <c:axId val="839923048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="839922064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="839923048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="839923048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="839922064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AR5'!$C$174</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AR5'!$A$175:$A$180</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.69289999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3496999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9323999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2383000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9205000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AR5'!$C$175:$C$180</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.69276470000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30195050000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52324910000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4589890000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2652679999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B6D-40FE-A64E-7E7D24C49093}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AR5'!$D$174</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AR5'!$A$175:$A$180</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.69289999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3496999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9323999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2383000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9205000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AR5'!$D$175:$D$180</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2740799999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5077959999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9232469999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.116473</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67469699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31051279999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1B6D-40FE-A64E-7E7D24C49093}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="860104936"/>
+        <c:axId val="860066560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="860104936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="860066560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="860066560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="860104936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6015,7 +7625,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6196,7 +7806,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="716166208"/>
@@ -6258,7 +7868,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="716164896"/>
@@ -6299,7 +7909,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6351,7 +7961,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6438,7 +8048,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="nl-NL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6558,7 +8168,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="723403912"/>
@@ -6620,7 +8230,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="624582440"/>
@@ -6661,7 +8271,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6713,7 +8323,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6804,7 +8414,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="nl-NL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6936,7 +8546,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="876484656"/>
@@ -6998,7 +8608,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="876487936"/>
@@ -7039,7 +8649,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7091,7 +8701,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7292,7 +8902,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="876418792"/>
@@ -7354,7 +8964,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="876421744"/>
@@ -7395,7 +9005,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7447,7 +9057,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7568,7 +9178,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="nl-NL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -7700,7 +9310,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="867564216"/>
@@ -7762,7 +9372,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="867563888"/>
@@ -7803,7 +9413,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7855,7 +9465,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7946,7 +9556,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="nl-NL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -8072,7 +9682,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="815849160"/>
@@ -8134,7 +9744,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="815849816"/>
@@ -8175,7 +9785,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8227,7 +9837,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8348,7 +9958,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="nl-NL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -8474,7 +10084,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="823413192"/>
@@ -8536,7 +10146,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="823412864"/>
@@ -8577,7 +10187,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9228,6 +10838,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -17249,6 +19019,2070 @@
 </file>
 
 <file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22068,6 +25902,126 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="26" name="Chart 25"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="27" name="Chart 26"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="30" name="Chart 29"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="31" name="Chart 30"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -22334,15 +26288,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC144"/>
+  <dimension ref="A1:AC189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="D174" activeCellId="2" sqref="A174:A180 C174:C180 D174:D180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22929,9 +26884,274 @@
         <v>0.50863190000000003</v>
       </c>
     </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" t="s">
+        <v>3</v>
+      </c>
+      <c r="F174" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>0.69289999999999996</v>
+      </c>
+      <c r="B175">
+        <v>1.7387779999999999</v>
+      </c>
+      <c r="C175">
+        <v>0.69276470000000001</v>
+      </c>
+      <c r="D175">
+        <v>4.2740799999999997</v>
+      </c>
+      <c r="F175">
+        <f t="shared" ref="F175:F182" si="0">(B175-C175)/(D175-C175)</f>
+        <v>0.29207517696082219</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1.3496999999999999</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>0.30195050000000001</v>
+      </c>
+      <c r="D176">
+        <v>3.5077959999999999</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="0"/>
+        <v>0.21774271405156614</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1.9323999999999999</v>
+      </c>
+      <c r="B177">
+        <v>0.5667325029055762</v>
+      </c>
+      <c r="C177">
+        <v>0.52324910000000002</v>
+      </c>
+      <c r="D177">
+        <v>2.9232469999999999</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="0"/>
+        <v>1.8118100397327922E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>2.2383000000000002</v>
+      </c>
+      <c r="B178" s="1">
+        <v>0.2418014</v>
+      </c>
+      <c r="C178">
+        <v>7.4589890000000006E-2</v>
+      </c>
+      <c r="D178">
+        <v>1.116473</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="0"/>
+        <v>0.16048970215094474</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>2.9205000000000001</v>
+      </c>
+      <c r="B179">
+        <v>0.1883726</v>
+      </c>
+      <c r="C179">
+        <v>1.2652679999999999E-2</v>
+      </c>
+      <c r="D179">
+        <v>0.67469699999999999</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="0"/>
+        <v>0.26542017609938862</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>4.1852</v>
+      </c>
+      <c r="B180">
+        <v>3.9502240000000001E-2</v>
+      </c>
+      <c r="C180">
+        <v>0.01</v>
+      </c>
+      <c r="D180">
+        <v>0.31051279999999998</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="0"/>
+        <v>9.8172989636381547E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" t="s">
+        <v>3</v>
+      </c>
+      <c r="F182" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>0.69289999999999996</v>
+      </c>
+      <c r="B183">
+        <v>1.7387779999999999</v>
+      </c>
+      <c r="C183">
+        <v>0.69276470000000001</v>
+      </c>
+      <c r="D183" s="4">
+        <f>9.1525*EXP(-0.823*A183)</f>
+        <v>5.1746430763139664</v>
+      </c>
+      <c r="F183">
+        <f>(B183-C183)/(D183-C183)</f>
+        <v>0.23338725689836168</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1.3496999999999999</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>0.30195050000000001</v>
+      </c>
+      <c r="D184">
+        <v>3.5077959999999999</v>
+      </c>
+      <c r="F184">
+        <f t="shared" ref="F184:F188" si="1">(B184-C184)/(D184-C184)</f>
+        <v>0.21774271405156614</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1.9323999999999999</v>
+      </c>
+      <c r="B185" s="4">
+        <v>0.5667325029055762</v>
+      </c>
+      <c r="C185" s="4">
+        <f>2.1434*EXP(-1.378*A185)</f>
+        <v>0.14950075339939764</v>
+      </c>
+      <c r="D185" s="4">
+        <f>9.1525*EXP(-0.823*A185)</f>
+        <v>1.8657476659162955</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="1"/>
+        <v>0.2431070648769896</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>2.2383000000000002</v>
+      </c>
+      <c r="B186">
+        <v>0.2418014</v>
+      </c>
+      <c r="C186">
+        <v>7.4589890000000006E-2</v>
+      </c>
+      <c r="D186">
+        <v>1.116473</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="1"/>
+        <v>0.16048970215094474</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>2.9205000000000001</v>
+      </c>
+      <c r="B187">
+        <v>0.1883726</v>
+      </c>
+      <c r="C187">
+        <v>1.2652679999999999E-2</v>
+      </c>
+      <c r="D187">
+        <v>0.67469699999999999</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="1"/>
+        <v>0.26542017609938862</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>4.1852</v>
+      </c>
+      <c r="B188">
+        <v>3.9502240000000001E-2</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0.31051279999999998</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="1"/>
+        <v>0.12721614052625208</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F189">
+        <f>AVERAGE(F183:F188)</f>
+        <v>0.20789384243391718</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/bakjesExtrapoleren.xlsx
+++ b/bakjesExtrapoleren.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\ontwapps\Timer\Users\Stijn\Model\deltaCO2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16695" windowHeight="11565"/>
   </bookViews>
@@ -15,9 +10,9 @@
     <sheet name="AR5" sheetId="1" r:id="rId1"/>
     <sheet name="SSP" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="14">
   <si>
     <t>deltaCO2</t>
   </si>
@@ -62,16 +57,22 @@
   <si>
     <t>ratio</t>
   </si>
+  <si>
+    <t>10-90%:</t>
+  </si>
+  <si>
+    <t>10-90%, 5 bakjes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,7 +119,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -134,22 +135,11 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -178,12 +168,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -232,12 +220,11 @@
             </c:spPr>
             <c:trendlineType val="exp"/>
             <c:forward val="3"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5135608048993874E-3"/>
+                  <c:x val="-3.5135608048993882E-3"/>
                   <c:y val="-0.3314953339165938"/>
                 </c:manualLayout>
               </c:layout>
@@ -313,30 +300,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4706-4DA1-A1F0-0F4346F70FDB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="629583896"/>
-        <c:axId val="629584224"/>
+        <c:dLbls/>
+        <c:axId val="77447552"/>
+        <c:axId val="77449088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="629583896"/>
+        <c:axId val="77447552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -354,7 +332,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -389,16 +366,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="629584224"/>
+        <c:crossAx val="77449088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="629584224"/>
+        <c:axId val="77449088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -416,7 +392,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -451,7 +426,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="629583896"/>
+        <c:crossAx val="77447552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -465,7 +440,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -494,29 +468,17 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -545,12 +507,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -598,13 +558,12 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5665135608048994E-2"/>
-                  <c:y val="-0.38804024496937883"/>
+                  <c:x val="-3.5665135608049001E-2"/>
+                  <c:y val="-0.38804024496937889"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -645,26 +604,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="nl-NL"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -709,30 +648,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D54B-4A3C-AB74-84B965C8A614}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="760758816"/>
-        <c:axId val="760753568"/>
+        <c:dLbls/>
+        <c:axId val="80447744"/>
+        <c:axId val="80461824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="760758816"/>
+        <c:axId val="80447744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -750,7 +680,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -785,16 +714,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="760753568"/>
+        <c:crossAx val="80461824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="760753568"/>
+        <c:axId val="80461824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -812,7 +740,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -847,7 +774,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="760758816"/>
+        <c:crossAx val="80447744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -861,7 +788,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -890,29 +816,18 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -941,12 +856,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -994,7 +907,6 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -1075,30 +987,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-04D9-4527-BFA6-8FE86685140E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="875523296"/>
-        <c:axId val="875514112"/>
+        <c:dLbls/>
+        <c:axId val="80573184"/>
+        <c:axId val="80574720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="875523296"/>
+        <c:axId val="80573184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1116,7 +1019,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1151,16 +1053,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875514112"/>
+        <c:crossAx val="80574720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="875514112"/>
+        <c:axId val="80574720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1178,7 +1079,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1213,7 +1113,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875523296"/>
+        <c:crossAx val="80573184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1227,7 +1127,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1256,29 +1155,17 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1307,12 +1194,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1360,12 +1245,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.5891076115485563E-2"/>
+                  <c:x val="-1.5891076115485566E-2"/>
                   <c:y val="-0.26304024496937883"/>
                 </c:manualLayout>
               </c:layout>
@@ -1441,30 +1325,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8441-4365-964D-69BA21EE84ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="875519360"/>
-        <c:axId val="875517064"/>
+        <c:dLbls/>
+        <c:axId val="80608256"/>
+        <c:axId val="80614144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="875519360"/>
+        <c:axId val="80608256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1482,7 +1357,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1517,16 +1391,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875517064"/>
+        <c:crossAx val="80614144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="875517064"/>
+        <c:axId val="80614144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1544,7 +1417,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1579,7 +1451,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875519360"/>
+        <c:crossAx val="80608256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1593,7 +1465,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1622,29 +1493,17 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1673,12 +1532,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1727,13 +1584,12 @@
             </c:spPr>
             <c:trendlineType val="exp"/>
             <c:backward val="1.5"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.5886701662292212E-2"/>
-                  <c:y val="-0.29081802274715662"/>
+                  <c:x val="2.5886701662292209E-2"/>
+                  <c:y val="-0.29081802274715668"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1774,26 +1630,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="nl-NL"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -1832,30 +1668,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6DAD-4E28-9745-E48C34D0442F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="878522384"/>
-        <c:axId val="878521400"/>
+        <c:dLbls/>
+        <c:axId val="80672256"/>
+        <c:axId val="80673792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="878522384"/>
+        <c:axId val="80672256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1873,7 +1700,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1908,16 +1734,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="878521400"/>
+        <c:crossAx val="80673792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="878521400"/>
+        <c:axId val="80673792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1935,7 +1760,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1970,7 +1794,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="878522384"/>
+        <c:crossAx val="80672256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1984,7 +1808,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2013,29 +1836,17 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2064,12 +1875,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2117,13 +1926,12 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.1004811898512685E-2"/>
-                  <c:y val="-0.39258821813939926"/>
+                  <c:x val="-5.1004811898512699E-2"/>
+                  <c:y val="-0.39258821813939937"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2164,26 +1972,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="nl-NL"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -2228,30 +2016,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-378E-46A0-BB08-93A1499A41B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="823178888"/>
-        <c:axId val="823179216"/>
+        <c:dLbls/>
+        <c:axId val="80707584"/>
+        <c:axId val="80709120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="823178888"/>
+        <c:axId val="80707584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2269,7 +2048,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2304,16 +2082,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="823179216"/>
+        <c:crossAx val="80709120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="823179216"/>
+        <c:axId val="80709120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2331,7 +2108,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2366,7 +2142,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="823178888"/>
+        <c:crossAx val="80707584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2380,7 +2156,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2409,29 +2184,17 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2460,12 +2223,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2513,12 +2274,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.6004811898512687E-2"/>
+                  <c:x val="-2.6004811898512691E-2"/>
                   <c:y val="-0.34110928842228055"/>
                 </c:manualLayout>
               </c:layout>
@@ -2594,30 +2354,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-681C-414E-BAF1-B9D3CD33D092}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="875521000"/>
-        <c:axId val="875518376"/>
+        <c:dLbls/>
+        <c:axId val="80828672"/>
+        <c:axId val="80830464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="875521000"/>
+        <c:axId val="80828672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2635,7 +2386,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2670,16 +2420,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875518376"/>
+        <c:crossAx val="80830464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="875518376"/>
+        <c:axId val="80830464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2697,7 +2446,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2732,7 +2480,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875521000"/>
+        <c:crossAx val="80828672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2746,7 +2494,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2775,29 +2522,17 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2826,12 +2561,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2879,13 +2612,12 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-4.6688538932633424E-3"/>
-                  <c:y val="-0.34637357830271215"/>
+                  <c:y val="-0.34637357830271226"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2954,30 +2686,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7779-4588-B915-BFEECBB31522}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="913406440"/>
-        <c:axId val="913419888"/>
+        <c:dLbls/>
+        <c:axId val="80745600"/>
+        <c:axId val="80845824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="913406440"/>
+        <c:axId val="80745600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2995,7 +2718,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3030,16 +2752,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="913419888"/>
+        <c:crossAx val="80845824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="913419888"/>
+        <c:axId val="80845824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3057,7 +2778,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3092,7 +2812,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="913406440"/>
+        <c:crossAx val="80745600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3106,7 +2826,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3135,29 +2854,18 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3186,12 +2894,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3239,12 +2945,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.4554024496937884E-2"/>
+                  <c:x val="-2.4554024496937877E-2"/>
                   <c:y val="-0.24915135608048994"/>
                 </c:manualLayout>
               </c:layout>
@@ -3332,30 +3037,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-058C-41F3-B962-A2FAB8A8062F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="767487232"/>
-        <c:axId val="767488216"/>
+        <c:dLbls/>
+        <c:axId val="80641024"/>
+        <c:axId val="80773888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="767487232"/>
+        <c:axId val="80641024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3373,7 +3069,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3408,16 +3103,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="767488216"/>
+        <c:crossAx val="80773888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="767488216"/>
+        <c:axId val="80773888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3435,7 +3129,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3470,7 +3163,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="767487232"/>
+        <c:crossAx val="80641024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3484,7 +3177,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3513,29 +3205,18 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3564,12 +3245,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3617,8 +3296,6 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -3674,30 +3351,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E9B4-4EBD-80ED-B5838724301C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="764493024"/>
-        <c:axId val="836105752"/>
+        <c:dLbls/>
+        <c:axId val="80950784"/>
+        <c:axId val="80952320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="764493024"/>
+        <c:axId val="80950784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3715,7 +3383,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3750,16 +3417,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="836105752"/>
+        <c:crossAx val="80952320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="836105752"/>
+        <c:axId val="80952320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3777,7 +3443,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3812,7 +3477,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="764493024"/>
+        <c:crossAx val="80950784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3826,7 +3491,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3855,29 +3519,18 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3906,12 +3559,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4002,30 +3653,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-18F2-4F88-9CDA-41D463208B32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="765393296"/>
-        <c:axId val="765392968"/>
+        <c:dLbls/>
+        <c:axId val="80997376"/>
+        <c:axId val="80888576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="765393296"/>
+        <c:axId val="80997376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4043,7 +3685,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4078,16 +3719,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="765392968"/>
+        <c:crossAx val="80888576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="765392968"/>
+        <c:axId val="80888576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4105,7 +3745,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4140,7 +3779,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="765393296"/>
+        <c:crossAx val="80997376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4154,7 +3793,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4183,29 +3821,17 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4234,12 +3860,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4288,12 +3912,11 @@
             </c:spPr>
             <c:trendlineType val="exp"/>
             <c:forward val="3"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.53753280839895E-2"/>
+                  <c:x val="3.5375328083989507E-2"/>
                   <c:y val="-0.26669473607465732"/>
                 </c:manualLayout>
               </c:layout>
@@ -4369,30 +3992,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-98B8-497C-9FF2-EA9681184DF8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="627609576"/>
-        <c:axId val="627607280"/>
+        <c:dLbls/>
+        <c:axId val="75315840"/>
+        <c:axId val="75329920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="627609576"/>
+        <c:axId val="75315840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4410,7 +4024,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4445,16 +4058,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627607280"/>
+        <c:crossAx val="75329920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="627607280"/>
+        <c:axId val="75329920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4472,7 +4084,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4507,7 +4118,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627609576"/>
+        <c:crossAx val="75315840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4521,7 +4132,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4550,29 +4160,18 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4601,12 +4200,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4654,8 +4251,6 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -4705,30 +4300,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-22E6-43CF-96C8-912A13AC7496}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="836100504"/>
-        <c:axId val="836100176"/>
+        <c:dLbls/>
+        <c:axId val="80913920"/>
+        <c:axId val="80915456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="836100504"/>
+        <c:axId val="80913920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4746,7 +4332,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4781,16 +4366,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="836100176"/>
+        <c:crossAx val="80915456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="836100176"/>
+        <c:axId val="80915456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4808,7 +4392,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4843,7 +4426,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="836100504"/>
+        <c:crossAx val="80913920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4857,7 +4440,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4886,29 +4468,18 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4937,12 +4508,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4990,13 +4559,12 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.1220691163604553E-2"/>
-                  <c:y val="-0.19822543015456401"/>
+                  <c:x val="-9.1220691163604567E-2"/>
+                  <c:y val="-0.19822543015456404"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5071,30 +4639,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3B2E-4AF0-BD4B-AD04A12C9337}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="764032248"/>
-        <c:axId val="764043072"/>
+        <c:dLbls/>
+        <c:axId val="81043840"/>
+        <c:axId val="81045376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="764032248"/>
+        <c:axId val="81043840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5112,7 +4671,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5147,16 +4705,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="764043072"/>
+        <c:crossAx val="81045376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="764043072"/>
+        <c:axId val="81045376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5174,7 +4731,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5209,7 +4765,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="764032248"/>
+        <c:crossAx val="81043840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5223,7 +4779,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5252,29 +4807,18 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5303,12 +4847,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5358,13 +4900,12 @@
             <c:trendlineType val="exp"/>
             <c:forward val="1"/>
             <c:backward val="1"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.3439632545931757E-2"/>
-                  <c:y val="-0.298947579469233"/>
+                  <c:x val="4.3439632545931778E-2"/>
+                  <c:y val="-0.29894757946923306"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5439,30 +4980,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4602-475D-BBCE-F52D7524B399}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="860545016"/>
-        <c:axId val="860548952"/>
+        <c:dLbls/>
+        <c:axId val="81140352"/>
+        <c:axId val="81162624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="860545016"/>
+        <c:axId val="81140352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5480,7 +5012,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5515,16 +5046,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="860548952"/>
+        <c:crossAx val="81162624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="860548952"/>
+        <c:axId val="81162624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5542,7 +5072,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5577,7 +5106,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="860545016"/>
+        <c:crossAx val="81140352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5591,7 +5120,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5620,29 +5148,18 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5671,12 +5188,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5724,13 +5239,12 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.0893700787401576E-2"/>
-                  <c:y val="-0.34685367454068239"/>
+                  <c:x val="-6.089370078740159E-2"/>
+                  <c:y val="-0.34685367454068244"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5799,30 +5313,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1995-4BD9-963B-4B9E0AC72891}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="765398872"/>
-        <c:axId val="765391984"/>
+        <c:dLbls/>
+        <c:axId val="81179776"/>
+        <c:axId val="81181312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="765398872"/>
+        <c:axId val="81179776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5840,7 +5345,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5875,16 +5379,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="765391984"/>
+        <c:crossAx val="81181312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="765391984"/>
+        <c:axId val="81181312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5902,7 +5405,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5937,7 +5439,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="765398872"/>
+        <c:crossAx val="81179776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5951,7 +5453,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5980,29 +5481,18 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6031,12 +5521,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6084,13 +5572,12 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10788735783027122"/>
-                  <c:y val="-0.3510032079323418"/>
+                  <c:x val="-0.1078873578302712"/>
+                  <c:y val="-0.35100320793234185"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -6131,26 +5618,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="nl-NL"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -6207,30 +5674,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7098-4650-97B6-0656E7961552}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="837923744"/>
-        <c:axId val="837923088"/>
+        <c:dLbls/>
+        <c:axId val="81120640"/>
+        <c:axId val="81204352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="837923744"/>
+        <c:axId val="81120640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -6248,7 +5706,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -6283,16 +5740,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="837923088"/>
+        <c:crossAx val="81204352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="837923088"/>
+        <c:axId val="81204352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -6310,7 +5766,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -6345,7 +5800,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="837923744"/>
+        <c:crossAx val="81120640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6359,7 +5814,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6388,29 +5842,18 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6439,12 +5882,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6492,13 +5933,12 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10933814523184603"/>
-                  <c:y val="-0.32507035578885973"/>
+                  <c:x val="-0.10933814523184604"/>
+                  <c:y val="-0.3250703557888599"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -6539,26 +5979,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="nl-NL"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -6615,30 +6035,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1929-45C1-9EB3-2B94B8C93499}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="843085296"/>
-        <c:axId val="843099072"/>
+        <c:dLbls/>
+        <c:axId val="81237504"/>
+        <c:axId val="81239040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="843085296"/>
+        <c:axId val="81237504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -6656,7 +6067,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -6691,16 +6101,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="843099072"/>
+        <c:crossAx val="81239040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="843099072"/>
+        <c:axId val="81239040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -6718,7 +6127,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -6753,7 +6161,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="843085296"/>
+        <c:crossAx val="81237504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6767,7 +6175,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6796,29 +6203,18 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6847,12 +6243,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6889,8 +6283,6 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -6940,30 +6332,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-96BB-4BD2-B077-ECBE2310DF62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="839922064"/>
-        <c:axId val="839923048"/>
+        <c:dLbls/>
+        <c:axId val="81297408"/>
+        <c:axId val="81298944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="839922064"/>
+        <c:axId val="81297408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -6981,7 +6364,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -7016,16 +6398,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="839923048"/>
+        <c:crossAx val="81298944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="839923048"/>
+        <c:axId val="81298944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -7043,7 +6424,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -7078,7 +6458,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="839922064"/>
+        <c:crossAx val="81297408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7092,7 +6472,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7121,29 +6500,18 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7172,12 +6540,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -7268,8 +6634,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1B6D-40FE-A64E-7E7D24C49093}"/>
             </c:ext>
@@ -7365,30 +6730,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1B6D-40FE-A64E-7E7D24C49093}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="860104936"/>
-        <c:axId val="860066560"/>
+        <c:dLbls/>
+        <c:axId val="81231232"/>
+        <c:axId val="81339520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="860104936"/>
+        <c:axId val="81231232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -7406,7 +6762,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -7441,16 +6796,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="860066560"/>
+        <c:crossAx val="81339520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="860066560"/>
+        <c:axId val="81339520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -7468,7 +6822,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -7503,7 +6856,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="860104936"/>
+        <c:crossAx val="81231232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7518,7 +6871,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7549,7 +6901,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7578,6 +6929,316 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AR5'!$C$210</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3450568678915135E-2"/>
+                  <c:y val="-0.3969597550306212"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>y = 1,4577e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="30000"/>
+                      <a:t>-1,32x</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AR5'!$A$211:$A$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.686164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.313366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1761309999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9109790000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1693759999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AR5'!$C$211:$C$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.69276470000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30195050000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7265999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2652679999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="86209280"/>
+        <c:axId val="85052416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="86209280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85052416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="85052416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86209280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AR5'!$D$210</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6378390201224845E-2"/>
+                  <c:y val="-0.40621901428988044"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>y = 8,5055e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="30000"/>
+                      <a:t>-0,804x</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AR5'!$A$211:$A$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.686164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.313366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1761309999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9109790000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1693759999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AR5'!$D$211:$D$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.2740799999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5077959999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.658685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67469699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31051279999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="101949824"/>
+        <c:axId val="101939840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="101949824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101939840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="101939840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101949824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
@@ -7585,22 +7246,10 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7629,12 +7278,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -7682,8 +7329,6 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -7733,30 +7378,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FC3F-4BBA-8304-CD874185C193}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="716164896"/>
-        <c:axId val="716166208"/>
+        <c:dLbls/>
+        <c:axId val="77403264"/>
+        <c:axId val="77404800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="716164896"/>
+        <c:axId val="77403264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -7774,7 +7410,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -7809,16 +7444,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="716166208"/>
+        <c:crossAx val="77404800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="716166208"/>
+        <c:axId val="77404800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -7836,7 +7470,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -7871,7 +7504,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="716164896"/>
+        <c:crossAx val="77403264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7885,7 +7518,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7914,6 +7546,463 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AR5'!$B$210</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mediaan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7895888013998246E-4"/>
+                  <c:y val="-0.39082567804024498"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:t>y = 4,2656e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="30000"/>
+                      <a:t>-1,089x</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1600"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AR5'!$A$211:$A$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.686164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.313366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1761309999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9109790000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1693759999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AR5'!$B$211:$B$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.7387779999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.515459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1883726</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9502240000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="69255552"/>
+        <c:axId val="69253760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="69255552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69253760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="69253760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69255552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AR5'!$D$210</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0630139982502186E-2"/>
+                  <c:y val="-0.33214494021580637"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:t>y = 68,609e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="30000"/>
+                      <a:t>-2,026x</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1600"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AR5'!$A$211:$A$216</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.686164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.313366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1761309999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9109790000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1693759999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AR5'!$D$211:$D$216</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2740799999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5077959999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.658685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67469699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31051279999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="83576320"/>
+        <c:axId val="83574784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="83576320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83574784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="83574784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83576320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AR5'!$E$210</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1716972878390202E-2"/>
+                  <c:y val="-0.40152012248468943"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AR5'!$A$211:$A$216</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.686164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.313366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1761309999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9109790000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1693759999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AR5'!$E$211:$E$216</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.3740799999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.607796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7586850000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77469699999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41051280000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="90362624"/>
+        <c:axId val="89039616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="90362624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89039616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="89039616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90362624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
@@ -7921,22 +8010,10 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7965,12 +8042,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -8019,10 +8094,8 @@
             </c:spPr>
             <c:trendlineType val="exp"/>
             <c:forward val="3"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -8095,30 +8168,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-52D8-4BE4-A347-3B472F9049CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="624582440"/>
-        <c:axId val="723403912"/>
+        <c:dLbls/>
+        <c:axId val="77917568"/>
+        <c:axId val="80159872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="624582440"/>
+        <c:axId val="77917568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -8136,7 +8200,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -8171,16 +8234,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="723403912"/>
+        <c:crossAx val="80159872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="723403912"/>
+        <c:axId val="80159872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -8198,7 +8260,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -8233,7 +8294,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="624582440"/>
+        <c:crossAx val="77917568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8247,7 +8308,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8276,29 +8336,18 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -8327,12 +8376,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -8380,7 +8427,6 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -8473,30 +8519,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F63B-46DE-8314-160053671FCC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="876487936"/>
-        <c:axId val="876484656"/>
+        <c:dLbls/>
+        <c:axId val="80193408"/>
+        <c:axId val="80194944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="876487936"/>
+        <c:axId val="80193408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -8514,7 +8551,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -8549,16 +8585,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="876484656"/>
+        <c:crossAx val="80194944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="876484656"/>
+        <c:axId val="80194944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -8576,7 +8611,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -8611,7 +8645,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="876487936"/>
+        <c:crossAx val="80193408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8625,7 +8659,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8654,29 +8687,17 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -8705,12 +8726,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -8758,8 +8777,6 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
           </c:trendline>
           <c:trendline>
             <c:spPr>
@@ -8772,8 +8789,6 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -8829,30 +8844,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E082-4811-A1D4-045668695BE6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="876421744"/>
-        <c:axId val="876418792"/>
+        <c:dLbls/>
+        <c:axId val="80286848"/>
+        <c:axId val="80288384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="876421744"/>
+        <c:axId val="80286848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -8870,7 +8876,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -8905,16 +8910,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="876418792"/>
+        <c:crossAx val="80288384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="876418792"/>
+        <c:axId val="80288384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -8932,7 +8936,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -8967,7 +8970,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="876421744"/>
+        <c:crossAx val="80286848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8981,7 +8984,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9010,29 +9012,17 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -9061,12 +9051,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -9114,13 +9102,12 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="1.7553368328958881E-2"/>
-                  <c:y val="-0.29081802274715662"/>
+                  <c:y val="-0.29081802274715668"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -9161,26 +9148,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="nl-NL"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -9237,30 +9204,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8AB2-4F30-8DF7-8411ABB07F61}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="867563888"/>
-        <c:axId val="867564216"/>
+        <c:dLbls/>
+        <c:axId val="80371072"/>
+        <c:axId val="80376960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="867563888"/>
+        <c:axId val="80371072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -9278,7 +9236,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -9313,16 +9270,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="867564216"/>
+        <c:crossAx val="80376960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="867564216"/>
+        <c:axId val="80376960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -9340,7 +9296,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -9375,7 +9330,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="867563888"/>
+        <c:crossAx val="80371072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9389,7 +9344,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9418,29 +9372,17 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -9469,12 +9411,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -9522,13 +9462,12 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.8829177602799649E-2"/>
-                  <c:y val="-0.34637357830271215"/>
+                  <c:x val="-1.8829177602799653E-2"/>
+                  <c:y val="-0.34637357830271226"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -9609,30 +9548,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4D8D-4025-8DB2-6A1FCBDD40D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="815849816"/>
-        <c:axId val="815849160"/>
+        <c:dLbls/>
+        <c:axId val="80406400"/>
+        <c:axId val="80407936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="815849816"/>
+        <c:axId val="80406400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -9650,7 +9580,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -9685,16 +9614,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="815849160"/>
+        <c:crossAx val="80407936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="815849160"/>
+        <c:axId val="80407936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -9712,7 +9640,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -9747,7 +9674,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="815849816"/>
+        <c:crossAx val="80406400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9761,7 +9688,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9790,29 +9716,17 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -9841,12 +9755,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -9894,13 +9806,12 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-6.224409448818898E-3"/>
-                  <c:y val="-0.44359580052493436"/>
+                  <c:y val="-0.4435958005249343"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -9941,26 +9852,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="nl-NL"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -10011,30 +9902,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6304-4DD1-84DB-86D459A35153}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="823412864"/>
-        <c:axId val="823413192"/>
+        <c:dLbls/>
+        <c:axId val="80277504"/>
+        <c:axId val="80279040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="823412864"/>
+        <c:axId val="80277504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -10052,7 +9934,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -10087,16 +9968,15 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="823413192"/>
+        <c:crossAx val="80279040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="823413192"/>
+        <c:axId val="80279040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -10114,7 +9994,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -10149,7 +10028,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="823412864"/>
+        <c:crossAx val="80277504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10163,7 +10042,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10192,7 +10070,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -26022,6 +25900,156 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="29" name="Grafiek 28"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="32" name="Grafiek 31"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="33" name="Grafiek 32"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="34" name="Grafiek 33"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="35" name="Grafiek 34"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -26068,7 +26096,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -26103,7 +26131,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -26280,28 +26308,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC189"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AC224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="D174" activeCellId="2" sqref="A174:A180 C174:C180 D174:D180"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="W227" sqref="W227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26315,7 +26343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0.90500000000000003</v>
       </c>
@@ -26329,7 +26357,7 @@
         <v>6.1582100000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1.2549999999999999</v>
       </c>
@@ -26343,7 +26371,7 @@
         <v>3.6345000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1.7050000000000001</v>
       </c>
@@ -26357,7 +26385,7 @@
         <v>1.3241000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2.1549999999999998</v>
       </c>
@@ -26371,7 +26399,7 @@
         <v>0.81379999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>2.9550000000000001</v>
       </c>
@@ -26385,7 +26413,7 @@
         <v>0.1862</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -26399,7 +26427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>0.29549999999999998</v>
       </c>
@@ -26416,17 +26444,17 @@
         <v>0.19247437404623441</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="F19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -26440,7 +26468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>0.69289999999999996</v>
       </c>
@@ -26454,7 +26482,7 @@
         <v>8.0022000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>1.3496999999999999</v>
       </c>
@@ -26468,7 +26496,7 @@
         <v>8.4623000000000008</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>1.9323999999999999</v>
       </c>
@@ -26482,7 +26510,7 @@
         <v>10.49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>2.2383000000000002</v>
       </c>
@@ -26496,7 +26524,7 @@
         <v>1.6136999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>2.9205000000000001</v>
       </c>
@@ -26510,7 +26538,7 @@
         <v>1.8459000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>4.1852</v>
       </c>
@@ -26524,22 +26552,22 @@
         <v>0.4214</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="B31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="C33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="D35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -26553,7 +26581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>0.69289999999999996</v>
       </c>
@@ -26568,7 +26596,7 @@
         <v>17.63132225895805</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>1.3496999999999999</v>
       </c>
@@ -26582,7 +26610,7 @@
         <v>8.4623000000000008</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>1.9323999999999999</v>
       </c>
@@ -26599,7 +26627,7 @@
         <v>4.774283900026747</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>2.2383000000000002</v>
       </c>
@@ -26615,7 +26643,7 @@
         <v>3.4584668851835607</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>2.9205000000000001</v>
       </c>
@@ -26630,7 +26658,7 @@
         <v>1.8459000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>4.1852</v>
       </c>
@@ -26644,32 +26672,32 @@
         <v>0.4214</v>
       </c>
     </row>
-    <row r="50" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:14">
       <c r="F50" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:14">
       <c r="N64" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="29:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="29:29">
       <c r="AC65" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="29:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="29:29">
       <c r="AC80" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -26683,7 +26711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127">
         <v>0.69289999999999996</v>
       </c>
@@ -26697,7 +26725,7 @@
         <v>7.8924479999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128">
         <v>1.3496999999999999</v>
       </c>
@@ -26711,7 +26739,7 @@
         <v>8.3461730000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129">
         <v>1.9323999999999999</v>
       </c>
@@ -26725,7 +26753,7 @@
         <v>10.34642</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130">
         <v>2.2383000000000002</v>
       </c>
@@ -26739,7 +26767,7 @@
         <v>1.591512</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131">
         <v>2.9205000000000001</v>
       </c>
@@ -26753,7 +26781,7 @@
         <v>1.820619</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132">
         <v>4.1852</v>
       </c>
@@ -26767,7 +26795,7 @@
         <v>0.50863190000000003</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="A135">
         <v>1.9323999999999999</v>
       </c>
@@ -26780,7 +26808,7 @@
         <v>16.079158993377504</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -26794,7 +26822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139">
         <v>0.69289999999999996</v>
       </c>
@@ -26809,7 +26837,7 @@
         <v>14.56416285706681</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140">
         <v>1.3496999999999999</v>
       </c>
@@ -26823,7 +26851,7 @@
         <v>8.3461730000000003</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141">
         <v>1.9323999999999999</v>
       </c>
@@ -26840,7 +26868,7 @@
         <v>4.2905585063078115</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142">
         <v>2.2383000000000002</v>
       </c>
@@ -26855,7 +26883,7 @@
         <v>3.1733871290295386</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143">
         <v>2.9205000000000001</v>
       </c>
@@ -26870,7 +26898,7 @@
         <v>1.820619</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144">
         <v>4.1852</v>
       </c>
@@ -26884,12 +26912,17 @@
         <v>0.50863190000000003</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -26906,7 +26939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6">
       <c r="A175">
         <v>0.69289999999999996</v>
       </c>
@@ -26920,11 +26953,11 @@
         <v>4.2740799999999997</v>
       </c>
       <c r="F175">
-        <f t="shared" ref="F175:F182" si="0">(B175-C175)/(D175-C175)</f>
+        <f t="shared" ref="F175:F180" si="0">(B175-C175)/(D175-C175)</f>
         <v>0.29207517696082219</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6">
       <c r="A176">
         <v>1.3496999999999999</v>
       </c>
@@ -26942,7 +26975,7 @@
         <v>0.21774271405156614</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6">
       <c r="A177">
         <v>1.9323999999999999</v>
       </c>
@@ -26960,7 +26993,7 @@
         <v>1.8118100397327922E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>2.2383000000000002</v>
       </c>
@@ -26978,7 +27011,7 @@
         <v>0.16048970215094474</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>2.9205000000000001</v>
       </c>
@@ -26996,7 +27029,7 @@
         <v>0.26542017609938862</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>4.1852</v>
       </c>
@@ -27014,7 +27047,7 @@
         <v>9.8172989636381547E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -27031,7 +27064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>0.69289999999999996</v>
       </c>
@@ -27050,7 +27083,7 @@
         <v>0.23338725689836168</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>1.3496999999999999</v>
       </c>
@@ -27068,7 +27101,7 @@
         <v>0.21774271405156614</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>1.9323999999999999</v>
       </c>
@@ -27088,7 +27121,7 @@
         <v>0.2431070648769896</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>2.2383000000000002</v>
       </c>
@@ -27106,7 +27139,7 @@
         <v>0.16048970215094474</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>2.9205000000000001</v>
       </c>
@@ -27124,7 +27157,7 @@
         <v>0.26542017609938862</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>4.1852</v>
       </c>
@@ -27142,10 +27175,278 @@
         <v>0.12721614052625208</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6">
       <c r="F189">
         <f>AVERAGE(F183:F188)</f>
         <v>0.20789384243391718</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210" t="s">
+        <v>3</v>
+      </c>
+      <c r="E210" t="s">
+        <v>3</v>
+      </c>
+      <c r="F210" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211">
+        <v>0.686164</v>
+      </c>
+      <c r="B211">
+        <v>1.7387779999999999</v>
+      </c>
+      <c r="C211">
+        <v>0.69276470000000001</v>
+      </c>
+      <c r="D211">
+        <v>4.2740799999999997</v>
+      </c>
+      <c r="E211">
+        <f>D211+0.1</f>
+        <v>4.3740799999999993</v>
+      </c>
+      <c r="F211">
+        <f t="shared" ref="F211:F215" si="2">(B211-C211)/(D211-C211)</f>
+        <v>0.29207517696082219</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212">
+        <v>1.313366</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>0.30195050000000001</v>
+      </c>
+      <c r="D212">
+        <v>3.5077959999999999</v>
+      </c>
+      <c r="E212">
+        <f t="shared" ref="E212:E216" si="3">D212+0.1</f>
+        <v>3.607796</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="2"/>
+        <v>0.21774271405156614</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213">
+        <v>2.1761309999999998</v>
+      </c>
+      <c r="B213">
+        <v>0.515459</v>
+      </c>
+      <c r="C213">
+        <v>8.7265999999999996E-2</v>
+      </c>
+      <c r="D213">
+        <v>1.658685</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="3"/>
+        <v>1.7586850000000001</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="2"/>
+        <v>0.27248811424578678</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214">
+        <v>2.9109790000000002</v>
+      </c>
+      <c r="B214">
+        <v>0.1883726</v>
+      </c>
+      <c r="C214">
+        <v>1.2652679999999999E-2</v>
+      </c>
+      <c r="D214">
+        <v>0.67469699999999999</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="3"/>
+        <v>0.77469699999999997</v>
+      </c>
+      <c r="F214">
+        <f t="shared" si="2"/>
+        <v>0.26542017609938862</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215">
+        <v>4.1693759999999997</v>
+      </c>
+      <c r="B215">
+        <v>3.9502240000000001E-2</v>
+      </c>
+      <c r="C215">
+        <v>0.01</v>
+      </c>
+      <c r="D215">
+        <v>0.31051279999999998</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="3"/>
+        <v>0.41051280000000001</v>
+      </c>
+      <c r="F215">
+        <f t="shared" si="2"/>
+        <v>9.8172989636381547E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216">
+        <v>5</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
+        <v>2</v>
+      </c>
+      <c r="D218" t="s">
+        <v>3</v>
+      </c>
+      <c r="F218" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219">
+        <v>0.686164</v>
+      </c>
+      <c r="B219">
+        <v>1.7387779999999999</v>
+      </c>
+      <c r="C219">
+        <v>0.69276470000000001</v>
+      </c>
+      <c r="D219" s="4">
+        <f>9.1525*EXP(-0.823*A219)</f>
+        <v>5.2034095531144695</v>
+      </c>
+      <c r="F219">
+        <f>(B219-C219)/(D219-C219)</f>
+        <v>0.23189883798494088</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220">
+        <v>1.313366</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>0.30195050000000001</v>
+      </c>
+      <c r="D220">
+        <v>3.5077959999999999</v>
+      </c>
+      <c r="F220">
+        <f t="shared" ref="F220:F223" si="4">(B220-C220)/(D220-C220)</f>
+        <v>0.21774271405156614</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221">
+        <v>2.1761309999999998</v>
+      </c>
+      <c r="B221" s="4">
+        <v>0.5667325029055762</v>
+      </c>
+      <c r="C221" s="4">
+        <f>2.1434*EXP(-1.378*A221)</f>
+        <v>0.10685151006976371</v>
+      </c>
+      <c r="D221" s="4">
+        <f>9.1525*EXP(-0.823*A221)</f>
+        <v>1.5266430700085469</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="4"/>
+        <v>0.3239074000803619</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222">
+        <v>2.9109790000000002</v>
+      </c>
+      <c r="B222">
+        <v>0.2418014</v>
+      </c>
+      <c r="C222">
+        <v>7.4589890000000006E-2</v>
+      </c>
+      <c r="D222">
+        <v>1.116473</v>
+      </c>
+      <c r="F222">
+        <f t="shared" si="4"/>
+        <v>0.16048970215094474</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223">
+        <v>4.1693759999999997</v>
+      </c>
+      <c r="B223">
+        <v>0.1883726</v>
+      </c>
+      <c r="C223">
+        <v>1.2652679999999999E-2</v>
+      </c>
+      <c r="D223">
+        <v>0.67469699999999999</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="4"/>
+        <v>0.26542017609938862</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="F224">
+        <f>AVERAGE(F219:F223)</f>
+        <v>0.23989176607344045</v>
       </c>
     </row>
   </sheetData>
@@ -27156,14 +27457,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -27177,7 +27478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0.90500000000000003</v>
       </c>
@@ -27191,7 +27492,7 @@
         <v>6.1582100000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1.2549999999999999</v>
       </c>
@@ -27205,7 +27506,7 @@
         <v>3.6345000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1.7050000000000001</v>
       </c>
@@ -27219,7 +27520,7 @@
         <v>1.3241000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2.1549999999999998</v>
       </c>
@@ -27233,7 +27534,7 @@
         <v>0.81379999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>2.9550000000000001</v>
       </c>
@@ -27247,7 +27548,7 @@
         <v>0.1862</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -27261,7 +27562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>0.29549999999999998</v>
       </c>

--- a/bakjesExtrapoleren.xlsx
+++ b/bakjesExtrapoleren.xlsx
@@ -7908,6 +7908,26 @@
                   <c:y val="-0.40152012248468943"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>y = 9,8357e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="30000"/>
+                      <a:t>-0,851x</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -26318,7 +26338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P208" workbookViewId="0">
       <selection activeCell="W227" sqref="W227"/>
     </sheetView>
   </sheetViews>

--- a/bakjesExtrapoleren.xlsx
+++ b/bakjesExtrapoleren.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
   <si>
     <t>deltaCO2</t>
   </si>
@@ -139,7 +139,6 @@
   <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -224,7 +223,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5135608048993882E-3"/>
+                  <c:x val="-3.5135608048993887E-3"/>
                   <c:y val="-0.3314953339165938"/>
                 </c:manualLayout>
               </c:layout>
@@ -306,12 +305,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="77447552"/>
-        <c:axId val="77449088"/>
+        <c:axId val="64356352"/>
+        <c:axId val="64357888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77447552"/>
+        <c:axId val="64356352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -366,12 +364,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77449088"/>
+        <c:crossAx val="64357888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77449088"/>
+        <c:axId val="64357888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -426,7 +424,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77447552"/>
+        <c:crossAx val="64356352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -468,7 +466,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -562,8 +560,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5665135608049001E-2"/>
-                  <c:y val="-0.38804024496937889"/>
+                  <c:x val="-3.5665135608049008E-2"/>
+                  <c:y val="-0.38804024496937894"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -654,12 +652,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="80447744"/>
-        <c:axId val="80461824"/>
+        <c:axId val="66619264"/>
+        <c:axId val="66620800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80447744"/>
+        <c:axId val="66619264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -714,12 +711,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80461824"/>
+        <c:crossAx val="66620800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80461824"/>
+        <c:axId val="66620800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -774,7 +771,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80447744"/>
+        <c:crossAx val="66619264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -816,7 +813,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -827,7 +824,6 @@
   <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -993,12 +989,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="80573184"/>
-        <c:axId val="80574720"/>
+        <c:axId val="66675072"/>
+        <c:axId val="66676608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80573184"/>
+        <c:axId val="66675072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,12 +1048,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80574720"/>
+        <c:crossAx val="66676608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80574720"/>
+        <c:axId val="66676608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1113,7 +1108,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80573184"/>
+        <c:crossAx val="66675072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1155,7 +1150,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1249,7 +1244,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.5891076115485566E-2"/>
+                  <c:x val="-1.589107611548557E-2"/>
                   <c:y val="-0.26304024496937883"/>
                 </c:manualLayout>
               </c:layout>
@@ -1331,12 +1326,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="80608256"/>
-        <c:axId val="80614144"/>
+        <c:axId val="66701952"/>
+        <c:axId val="66707840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80608256"/>
+        <c:axId val="66701952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1391,12 +1385,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80614144"/>
+        <c:crossAx val="66707840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80614144"/>
+        <c:axId val="66707840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,7 +1445,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80608256"/>
+        <c:crossAx val="66701952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1493,7 +1487,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1589,7 +1583,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="2.5886701662292209E-2"/>
-                  <c:y val="-0.29081802274715668"/>
+                  <c:y val="-0.29081802274715673"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1674,12 +1668,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="80672256"/>
-        <c:axId val="80673792"/>
+        <c:axId val="66823296"/>
+        <c:axId val="66824832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80672256"/>
+        <c:axId val="66823296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1734,12 +1727,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80673792"/>
+        <c:crossAx val="66824832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80673792"/>
+        <c:axId val="66824832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1794,7 +1787,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80672256"/>
+        <c:crossAx val="66823296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1836,7 +1829,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1930,8 +1923,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.1004811898512699E-2"/>
-                  <c:y val="-0.39258821813939937"/>
+                  <c:x val="-5.1004811898512706E-2"/>
+                  <c:y val="-0.39258821813939943"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2022,12 +2015,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="80707584"/>
-        <c:axId val="80709120"/>
+        <c:axId val="68173184"/>
+        <c:axId val="68203648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80707584"/>
+        <c:axId val="68173184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2082,12 +2074,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80709120"/>
+        <c:crossAx val="68203648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80709120"/>
+        <c:axId val="68203648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2142,7 +2134,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80707584"/>
+        <c:crossAx val="68173184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2184,7 +2176,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2360,12 +2352,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="80828672"/>
-        <c:axId val="80830464"/>
+        <c:axId val="68310912"/>
+        <c:axId val="68312448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80828672"/>
+        <c:axId val="68310912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2420,12 +2411,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80830464"/>
+        <c:crossAx val="68312448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80830464"/>
+        <c:axId val="68312448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2480,7 +2471,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80828672"/>
+        <c:crossAx val="68310912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2522,7 +2513,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2617,7 +2608,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-4.6688538932633424E-3"/>
-                  <c:y val="-0.34637357830271226"/>
+                  <c:y val="-0.34637357830271237"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2692,12 +2683,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="80745600"/>
-        <c:axId val="80845824"/>
+        <c:axId val="68231552"/>
+        <c:axId val="68233088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80745600"/>
+        <c:axId val="68231552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2752,12 +2742,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80845824"/>
+        <c:crossAx val="68233088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80845824"/>
+        <c:axId val="68233088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2812,7 +2802,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80745600"/>
+        <c:crossAx val="68231552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2854,7 +2844,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2865,7 +2855,6 @@
   <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2949,7 +2938,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.4554024496937877E-2"/>
+                  <c:x val="-2.4554024496937873E-2"/>
                   <c:y val="-0.24915135608048994"/>
                 </c:manualLayout>
               </c:layout>
@@ -3043,12 +3032,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="80641024"/>
-        <c:axId val="80773888"/>
+        <c:axId val="68258432"/>
+        <c:axId val="68260224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80641024"/>
+        <c:axId val="68258432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3103,12 +3091,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80773888"/>
+        <c:crossAx val="68260224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80773888"/>
+        <c:axId val="68260224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3163,7 +3151,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80641024"/>
+        <c:crossAx val="68258432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3205,7 +3193,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3216,7 +3204,6 @@
   <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3357,12 +3344,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="80950784"/>
-        <c:axId val="80952320"/>
+        <c:axId val="68703360"/>
+        <c:axId val="68704896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80950784"/>
+        <c:axId val="68703360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3417,12 +3403,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80952320"/>
+        <c:crossAx val="68704896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80952320"/>
+        <c:axId val="68704896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3477,7 +3463,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80950784"/>
+        <c:crossAx val="68703360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3519,7 +3505,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3530,7 +3516,6 @@
   <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3659,12 +3644,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="80997376"/>
-        <c:axId val="80888576"/>
+        <c:axId val="68733568"/>
+        <c:axId val="68362624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80997376"/>
+        <c:axId val="68733568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3719,12 +3703,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80888576"/>
+        <c:crossAx val="68362624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80888576"/>
+        <c:axId val="68362624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3779,7 +3763,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80997376"/>
+        <c:crossAx val="68733568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3821,7 +3805,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3916,7 +3900,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.5375328083989507E-2"/>
+                  <c:x val="3.5375328083989521E-2"/>
                   <c:y val="-0.26669473607465732"/>
                 </c:manualLayout>
               </c:layout>
@@ -3998,12 +3982,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="75315840"/>
-        <c:axId val="75329920"/>
+        <c:axId val="64375040"/>
+        <c:axId val="64380928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75315840"/>
+        <c:axId val="64375040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4058,12 +4041,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75329920"/>
+        <c:crossAx val="64380928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75329920"/>
+        <c:axId val="64380928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4118,7 +4101,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75315840"/>
+        <c:crossAx val="64375040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4160,7 +4143,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4171,7 +4154,6 @@
   <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4306,12 +4288,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="80913920"/>
-        <c:axId val="80915456"/>
+        <c:axId val="68404352"/>
+        <c:axId val="68405888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80913920"/>
+        <c:axId val="68404352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4366,12 +4347,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80915456"/>
+        <c:crossAx val="68405888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80915456"/>
+        <c:axId val="68405888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4426,7 +4407,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80913920"/>
+        <c:crossAx val="68404352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4468,7 +4449,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4479,7 +4460,6 @@
   <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4564,7 +4544,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-9.1220691163604567E-2"/>
-                  <c:y val="-0.19822543015456404"/>
+                  <c:y val="-0.19822543015456406"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4645,12 +4625,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="81043840"/>
-        <c:axId val="81045376"/>
+        <c:axId val="68792320"/>
+        <c:axId val="68793856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81043840"/>
+        <c:axId val="68792320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4705,12 +4684,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81045376"/>
+        <c:crossAx val="68793856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81045376"/>
+        <c:axId val="68793856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4765,7 +4744,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81043840"/>
+        <c:crossAx val="68792320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4807,7 +4786,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4818,7 +4797,6 @@
   <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4904,8 +4882,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.3439632545931778E-2"/>
-                  <c:y val="-0.29894757946923306"/>
+                  <c:x val="4.3439632545931792E-2"/>
+                  <c:y val="-0.29894757946923312"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4986,12 +4964,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="81140352"/>
-        <c:axId val="81162624"/>
+        <c:axId val="68888832"/>
+        <c:axId val="68898816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81140352"/>
+        <c:axId val="68888832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5046,12 +5023,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81162624"/>
+        <c:crossAx val="68898816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81162624"/>
+        <c:axId val="68898816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5106,7 +5083,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81140352"/>
+        <c:crossAx val="68888832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5148,7 +5125,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5159,7 +5136,6 @@
   <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5243,8 +5219,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.089370078740159E-2"/>
-                  <c:y val="-0.34685367454068244"/>
+                  <c:x val="-6.0893700787401597E-2"/>
+                  <c:y val="-0.3468536745406825"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5319,12 +5295,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="81179776"/>
-        <c:axId val="81181312"/>
+        <c:axId val="68928256"/>
+        <c:axId val="68929792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81179776"/>
+        <c:axId val="68928256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5379,12 +5354,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81181312"/>
+        <c:crossAx val="68929792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81181312"/>
+        <c:axId val="68929792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5439,7 +5414,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81179776"/>
+        <c:crossAx val="68928256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5481,7 +5456,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5492,7 +5467,6 @@
   <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5576,8 +5550,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.1078873578302712"/>
-                  <c:y val="-0.35100320793234185"/>
+                  <c:x val="-0.10788735783027119"/>
+                  <c:y val="-0.35100320793234191"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5680,12 +5654,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="81120640"/>
-        <c:axId val="81204352"/>
+        <c:axId val="68844544"/>
+        <c:axId val="68948736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81120640"/>
+        <c:axId val="68844544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5740,12 +5713,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81204352"/>
+        <c:crossAx val="68948736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81204352"/>
+        <c:axId val="68948736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5800,7 +5773,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81120640"/>
+        <c:crossAx val="68844544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5842,7 +5815,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5853,7 +5826,6 @@
   <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5937,8 +5909,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10933814523184604"/>
-                  <c:y val="-0.3250703557888599"/>
+                  <c:x val="-0.10933814523184605"/>
+                  <c:y val="-0.32507035578886001"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -6041,12 +6013,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="81237504"/>
-        <c:axId val="81239040"/>
+        <c:axId val="68985984"/>
+        <c:axId val="68987520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81237504"/>
+        <c:axId val="68985984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6101,12 +6072,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81239040"/>
+        <c:crossAx val="68987520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81239040"/>
+        <c:axId val="68987520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6161,7 +6132,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81237504"/>
+        <c:crossAx val="68985984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6203,7 +6174,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6338,12 +6309,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="81297408"/>
-        <c:axId val="81298944"/>
+        <c:axId val="69549440"/>
+        <c:axId val="69571712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81297408"/>
+        <c:axId val="69549440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6398,12 +6368,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81298944"/>
+        <c:crossAx val="69571712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81298944"/>
+        <c:axId val="69571712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6458,7 +6428,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81297408"/>
+        <c:crossAx val="69549440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6500,7 +6470,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6736,12 +6706,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="81231232"/>
-        <c:axId val="81339520"/>
+        <c:axId val="68975616"/>
+        <c:axId val="69604096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81231232"/>
+        <c:axId val="68975616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6796,12 +6765,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81339520"/>
+        <c:crossAx val="69604096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81339520"/>
+        <c:axId val="69604096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6856,7 +6825,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81231232"/>
+        <c:crossAx val="68975616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6929,7 +6898,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6971,8 +6940,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.3450568678915135E-2"/>
-                  <c:y val="-0.3969597550306212"/>
+                  <c:x val="-1.3450568678915139E-2"/>
+                  <c:y val="-0.39695975503062131"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -7047,23 +7016,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="86209280"/>
-        <c:axId val="85052416"/>
+        <c:axId val="69623808"/>
+        <c:axId val="69625344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86209280"/>
+        <c:axId val="69623808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85052416"/>
+        <c:crossAx val="69625344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85052416"/>
+        <c:axId val="69625344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7071,7 +7040,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86209280"/>
+        <c:crossAx val="69623808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7084,7 +7053,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7126,8 +7095,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.6378390201224845E-2"/>
-                  <c:y val="-0.40621901428988044"/>
+                  <c:x val="-1.6378390201224842E-2"/>
+                  <c:y val="-0.4062190142898805"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -7202,23 +7171,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="101949824"/>
-        <c:axId val="101939840"/>
+        <c:axId val="69736320"/>
+        <c:axId val="69737856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101949824"/>
+        <c:axId val="69736320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101939840"/>
+        <c:crossAx val="69737856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101939840"/>
+        <c:axId val="69737856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7226,7 +7195,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101949824"/>
+        <c:crossAx val="69736320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7239,7 +7208,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7384,12 +7353,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="77403264"/>
-        <c:axId val="77404800"/>
+        <c:axId val="64570112"/>
+        <c:axId val="64571648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77403264"/>
+        <c:axId val="64570112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7444,12 +7412,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77404800"/>
+        <c:crossAx val="64571648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77404800"/>
+        <c:axId val="64571648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7504,7 +7472,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77403264"/>
+        <c:crossAx val="64570112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7546,7 +7514,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7588,8 +7556,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.7895888013998246E-4"/>
-                  <c:y val="-0.39082567804024498"/>
+                  <c:x val="-5.7895888013998267E-4"/>
+                  <c:y val="-0.39082567804024509"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -7664,23 +7632,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="69255552"/>
-        <c:axId val="69253760"/>
+        <c:axId val="69779456"/>
+        <c:axId val="69780992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69255552"/>
+        <c:axId val="69779456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69253760"/>
+        <c:crossAx val="69780992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69253760"/>
+        <c:axId val="69780992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7688,7 +7656,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69255552"/>
+        <c:crossAx val="69779456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7701,7 +7669,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7744,7 +7712,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-4.0630139982502186E-2"/>
-                  <c:y val="-0.33214494021580637"/>
+                  <c:y val="-0.33214494021580643"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -7825,23 +7793,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="83576320"/>
-        <c:axId val="83574784"/>
+        <c:axId val="62986112"/>
+        <c:axId val="62987648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83576320"/>
+        <c:axId val="62986112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83574784"/>
+        <c:crossAx val="62987648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83574784"/>
+        <c:axId val="62987648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7849,7 +7817,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83576320"/>
+        <c:crossAx val="62986112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7862,7 +7830,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7904,8 +7872,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.1716972878390202E-2"/>
-                  <c:y val="-0.40152012248468943"/>
+                  <c:x val="1.17169728783902E-2"/>
+                  <c:y val="-0.40152012248468949"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -7986,23 +7954,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="90362624"/>
-        <c:axId val="89039616"/>
+        <c:axId val="63032704"/>
+        <c:axId val="63038592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90362624"/>
+        <c:axId val="63032704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89039616"/>
+        <c:crossAx val="63038592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89039616"/>
+        <c:axId val="63038592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8010,7 +7978,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90362624"/>
+        <c:crossAx val="63032704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8023,7 +7991,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8194,12 +8162,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="77917568"/>
-        <c:axId val="80159872"/>
+        <c:axId val="64609280"/>
+        <c:axId val="66065152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77917568"/>
+        <c:axId val="64609280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8254,12 +8221,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80159872"/>
+        <c:crossAx val="66065152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80159872"/>
+        <c:axId val="66065152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8314,7 +8281,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77917568"/>
+        <c:crossAx val="64609280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8356,7 +8323,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8367,7 +8334,6 @@
   <c:lang val="nl-NL"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -8545,12 +8511,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="80193408"/>
-        <c:axId val="80194944"/>
+        <c:axId val="66086400"/>
+        <c:axId val="66087936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80193408"/>
+        <c:axId val="66086400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8605,12 +8570,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80194944"/>
+        <c:crossAx val="66087936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80194944"/>
+        <c:axId val="66087936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8665,7 +8630,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80193408"/>
+        <c:crossAx val="66086400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8707,7 +8672,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8870,12 +8835,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="80286848"/>
-        <c:axId val="80288384"/>
+        <c:axId val="66208512"/>
+        <c:axId val="66210048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80286848"/>
+        <c:axId val="66208512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8930,12 +8894,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80288384"/>
+        <c:crossAx val="66210048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80288384"/>
+        <c:axId val="66210048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8990,7 +8954,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80286848"/>
+        <c:crossAx val="66208512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9032,7 +8996,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9127,7 +9091,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="1.7553368328958881E-2"/>
-                  <c:y val="-0.29081802274715668"/>
+                  <c:y val="-0.29081802274715673"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -9230,12 +9194,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="80371072"/>
-        <c:axId val="80376960"/>
+        <c:axId val="66280448"/>
+        <c:axId val="66294528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80371072"/>
+        <c:axId val="66280448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9290,12 +9253,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80376960"/>
+        <c:crossAx val="66294528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80376960"/>
+        <c:axId val="66294528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9350,7 +9313,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80371072"/>
+        <c:crossAx val="66280448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9392,7 +9355,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9486,8 +9449,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.8829177602799653E-2"/>
-                  <c:y val="-0.34637357830271226"/>
+                  <c:x val="-1.8829177602799656E-2"/>
+                  <c:y val="-0.34637357830271237"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -9574,12 +9537,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="80406400"/>
-        <c:axId val="80407936"/>
+        <c:axId val="66315776"/>
+        <c:axId val="66317312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80406400"/>
+        <c:axId val="66315776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9634,12 +9596,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80407936"/>
+        <c:crossAx val="66317312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80407936"/>
+        <c:axId val="66317312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9694,7 +9656,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80406400"/>
+        <c:crossAx val="66315776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9736,7 +9698,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9831,7 +9793,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-6.224409448818898E-3"/>
-                  <c:y val="-0.4435958005249343"/>
+                  <c:y val="-0.44359580052493425"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -9928,12 +9890,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="80277504"/>
-        <c:axId val="80279040"/>
+        <c:axId val="66174336"/>
+        <c:axId val="66184320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80277504"/>
+        <c:axId val="66174336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9988,12 +9949,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80279040"/>
+        <c:crossAx val="66184320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80279040"/>
+        <c:axId val="66184320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10048,7 +10009,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80277504"/>
+        <c:crossAx val="66174336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10090,7 +10051,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -26328,7 +26289,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -26336,10 +26297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC224"/>
+  <dimension ref="A1:AC221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P208" workbookViewId="0">
-      <selection activeCell="W227" sqref="W227"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="D226" sqref="D226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27353,121 +27314,13 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
-      <c r="A218" t="s">
-        <v>0</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1</v>
-      </c>
-      <c r="C218" t="s">
-        <v>2</v>
-      </c>
-      <c r="D218" t="s">
-        <v>3</v>
-      </c>
-      <c r="F218" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="219" spans="1:6">
-      <c r="A219">
-        <v>0.686164</v>
-      </c>
-      <c r="B219">
-        <v>1.7387779999999999</v>
-      </c>
-      <c r="C219">
-        <v>0.69276470000000001</v>
-      </c>
-      <c r="D219" s="4">
-        <f>9.1525*EXP(-0.823*A219)</f>
-        <v>5.2034095531144695</v>
-      </c>
-      <c r="F219">
-        <f>(B219-C219)/(D219-C219)</f>
-        <v>0.23189883798494088</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220">
-        <v>1.313366</v>
-      </c>
-      <c r="B220">
-        <v>1</v>
-      </c>
-      <c r="C220">
-        <v>0.30195050000000001</v>
-      </c>
-      <c r="D220">
-        <v>3.5077959999999999</v>
-      </c>
-      <c r="F220">
-        <f t="shared" ref="F220:F223" si="4">(B220-C220)/(D220-C220)</f>
-        <v>0.21774271405156614</v>
-      </c>
+      <c r="D219" s="4"/>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221">
-        <v>2.1761309999999998</v>
-      </c>
-      <c r="B221" s="4">
-        <v>0.5667325029055762</v>
-      </c>
-      <c r="C221" s="4">
-        <f>2.1434*EXP(-1.378*A221)</f>
-        <v>0.10685151006976371</v>
-      </c>
-      <c r="D221" s="4">
-        <f>9.1525*EXP(-0.823*A221)</f>
-        <v>1.5266430700085469</v>
-      </c>
-      <c r="F221">
-        <f t="shared" si="4"/>
-        <v>0.3239074000803619</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222">
-        <v>2.9109790000000002</v>
-      </c>
-      <c r="B222">
-        <v>0.2418014</v>
-      </c>
-      <c r="C222">
-        <v>7.4589890000000006E-2</v>
-      </c>
-      <c r="D222">
-        <v>1.116473</v>
-      </c>
-      <c r="F222">
-        <f t="shared" si="4"/>
-        <v>0.16048970215094474</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223">
-        <v>4.1693759999999997</v>
-      </c>
-      <c r="B223">
-        <v>0.1883726</v>
-      </c>
-      <c r="C223">
-        <v>1.2652679999999999E-2</v>
-      </c>
-      <c r="D223">
-        <v>0.67469699999999999</v>
-      </c>
-      <c r="F223">
-        <f t="shared" si="4"/>
-        <v>0.26542017609938862</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="F224">
-        <f>AVERAGE(F219:F223)</f>
-        <v>0.23989176607344045</v>
-      </c>
+      <c r="B221" s="4"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bakjesExtrapoleren.xlsx
+++ b/bakjesExtrapoleren.xlsx
@@ -6936,6 +6936,7 @@
           </c:spPr>
           <c:trendline>
             <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -7868,6 +7869,7 @@
           </c:spPr>
           <c:trendline>
             <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -7991,7 +7993,545 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AR5'!$E$210</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.449693788276465E-4"/>
+                  <c:y val="-0.3080479002624672"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>y = 9.8357e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="30000"/>
+                      <a:t>-0.851x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>
+R² = 0.9675</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AR5'!$A$211:$A$216</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.686164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.313366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1761309999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9109790000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1693759999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AR5'!$E$211:$E$216</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.3740799999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.607796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7586850000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77469699999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41051280000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AR5'!$C$210</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17201443569553806"/>
+                  <c:y val="-9.6566418780985708E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>y = 1,4577e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="30000"/>
+                      <a:t>-1,32x</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AR5'!$A$211:$A$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.686164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.313366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1761309999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9109790000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1693759999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AR5'!$C$211:$C$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.69276470000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30195050000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7265999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2652679999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="65162240"/>
+        <c:axId val="65219200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="65162240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65219200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="65219200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65162240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nl-NL"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AR5'!$C$210</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17469991251093614"/>
+                  <c:y val="-4.8788641003207935E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>y = 1.4577e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="30000"/>
+                      <a:t>-1.32x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>
+R² = 0.919</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AR5'!$A$211:$A$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.686164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.313366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1761309999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9109790000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1693759999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AR5'!$C$211:$C$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.69276470000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30195050000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7265999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2652679999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AR5'!$E$210</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1716972878390198E-2"/>
+                  <c:y val="-0.4015201224846896"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>y = 9,8357e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="30000"/>
+                      <a:t>-0,851x</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AR5'!$A$211:$A$216</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.686164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.313366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1761309999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9109790000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1693759999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AR5'!$E$211:$E$216</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.3740799999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.607796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7586850000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77469699999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41051280000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="64731776"/>
+        <c:axId val="64801408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="64731776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64801408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="64801408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64731776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -26031,6 +26571,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="37" name="Grafiek 36"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="38" name="Grafiek 37"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -26299,8 +26899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="D226" sqref="D226"/>
+    <sheetView tabSelected="1" topLeftCell="H238" workbookViewId="0">
+      <selection activeCell="H242" sqref="H242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27333,7 +27933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
